--- a/数据整理/stocks/A股/上证主板/603899-晨光文具.xlsx
+++ b/数据整理/stocks/A股/上证主板/603899-晨光文具.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7442,7 +7443,6 @@
           <t>中金瑞祥灵活配置混合C</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>79.22</t>
@@ -7474,7 +7474,6 @@
           <t>长信双利优选混合E</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>86.69</t>
@@ -7490,6 +7489,3100 @@
       </c>
       <c r="H102" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>582.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.1779</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7193</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0145</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7552</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>54.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6367</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6131</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3391</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2516</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8636</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7892</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5769</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002259</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华健康环保灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002628</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002629</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商安博灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>61.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>400023</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002068</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东方多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.23</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603899-晨光文具.xlsx
+++ b/数据整理/stocks/A股/上证主板/603899-晨光文具.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10588,4 +10589,1884 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4156</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2959</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0074</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6145</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5731</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5672</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4847</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2254</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2049</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>66.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>350006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天治稳健双盈债券</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>66.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603899-晨光文具.xlsx
+++ b/数据整理/stocks/A股/上证主板/603899-晨光文具.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12469,4 +12470,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>101</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603899-晨光文具.xlsx
+++ b/数据整理/stocks/A股/上证主板/603899-晨光文具.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12478,7 +12479,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12489,17 +12490,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12509,14 +12530,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.37</v>
+          <t>260109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城内需增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -12525,14 +12568,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>46.83</v>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9344</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -12541,14 +12606,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>101</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63.09</v>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -12557,13 +12644,1709 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城品质长青混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9559</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8146</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4976</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4623</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3386</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城优势企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000219</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时裕益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>270041</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通可持续发展主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008110</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008136</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰科盈价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>33.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012511</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富兰克林国海优质企业一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010022</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发消费品精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>52.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510190</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安上证龙头ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>82</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>46.79</v>
       </c>
     </row>
